--- a/medicine/Mort/Cimetière_boisé_de_Des_Moines/Cimetière_boisé_de_Des_Moines.xlsx
+++ b/medicine/Mort/Cimetière_boisé_de_Des_Moines/Cimetière_boisé_de_Des_Moines.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_bois%C3%A9_de_Des_Moines</t>
+          <t>Cimetière_boisé_de_Des_Moines</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière boisé de Des Moines (Woodland cemetery, Des Moines) est un cimetière boisé municipal situé à Des Moines, la capitale de l'état de l'Iowa aux États-Unis. 
 C'est le plus ancien cimetière de la ville, fondé en 1848 avant même que Des Moines ne devienne la capitale de l'Iowa. Il s'étend sur 28 hectares et comprend quelque 80 000 tombes.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_bois%C3%A9_de_Des_Moines</t>
+          <t>Cimetière_boisé_de_Des_Moines</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_bois%C3%A9_de_Des_Moines</t>
+          <t>Cimetière_boisé_de_Des_Moines</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -538,7 +552,9 @@
           <t>Personnalités notables</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Rollin V. Ankeny (1830 – 1901), soldat
 Nathaniel B. Baker (1818 – 1876), homme politique
